--- a/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
+++ b/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>

--- a/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
+++ b/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>
@@ -3189,23 +3189,41 @@
       <c r="T23" s="208" t="n"/>
     </row>
     <row r="24" ht="99" customFormat="1" customHeight="1" s="204">
-      <c r="A24" s="266" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="267" t="n"/>
+      <c r="A24" s="266" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B24" s="267" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
       <c r="C24" s="252" t="n"/>
       <c r="D24" s="252" t="n"/>
       <c r="E24" s="252" t="n"/>
       <c r="F24" s="253" t="n"/>
       <c r="G24" s="267" t="n"/>
-      <c r="H24" s="267" t="n"/>
+      <c r="H24" s="267" t="inlineStr">
+        <is>
+          <t>En funcionamiento / Regular</t>
+        </is>
+      </c>
       <c r="I24" s="252" t="n"/>
       <c r="J24" s="253" t="n"/>
-      <c r="K24" s="267" t="n"/>
+      <c r="K24" s="267" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
+      </c>
       <c r="L24" s="253" t="n"/>
-      <c r="M24" s="267" t="n"/>
+      <c r="M24" s="267" t="inlineStr">
+        <is>
+          <t>USB Input Device</t>
+        </is>
+      </c>
       <c r="N24" s="253" t="n"/>
-      <c r="O24" s="268" t="n"/>
+      <c r="O24" s="268" t="inlineStr"/>
       <c r="P24" s="253" t="n"/>
       <c r="Q24" s="269" t="n"/>
       <c r="R24" s="252" t="n"/>
@@ -3213,23 +3231,41 @@
       <c r="T24" s="208" t="n"/>
     </row>
     <row r="25" ht="99" customFormat="1" customHeight="1" s="204">
-      <c r="A25" s="266" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" s="267" t="n"/>
+      <c r="A25" s="266" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B25" s="267" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
       <c r="C25" s="252" t="n"/>
       <c r="D25" s="252" t="n"/>
       <c r="E25" s="252" t="n"/>
       <c r="F25" s="253" t="n"/>
       <c r="G25" s="267" t="n"/>
-      <c r="H25" s="267" t="n"/>
+      <c r="H25" s="267" t="inlineStr">
+        <is>
+          <t>En funcionamiento</t>
+        </is>
+      </c>
       <c r="I25" s="252" t="n"/>
       <c r="J25" s="253" t="n"/>
-      <c r="K25" s="267" t="n"/>
+      <c r="K25" s="267" t="inlineStr">
+        <is>
+          <t>Pointing</t>
+        </is>
+      </c>
       <c r="L25" s="253" t="n"/>
-      <c r="M25" s="267" t="n"/>
+      <c r="M25" s="267" t="inlineStr">
+        <is>
+          <t>USB Input Device</t>
+        </is>
+      </c>
       <c r="N25" s="253" t="n"/>
-      <c r="O25" s="268" t="n"/>
+      <c r="O25" s="268" t="inlineStr"/>
       <c r="P25" s="253" t="n"/>
       <c r="Q25" s="269" t="n"/>
       <c r="R25" s="252" t="n"/>

--- a/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
+++ b/Siati/inventarios_generados/Entrega_OPERACIONES-30.xlsx
@@ -2733,7 +2733,7 @@
       <c r="Q9" s="231" t="n"/>
       <c r="R9" s="232" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="S9" s="233" t="n"/>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B21" s="267" t="inlineStr">
         <is>
-          <t>PC Escritorio/Laptop</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="C21" s="252" t="n"/>
